--- a/Ethereum.xlsx
+++ b/Ethereum.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1148"/>
+  <dimension ref="A1:H1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28963,16 +28963,16 @@
         <v>332.410004</v>
       </c>
       <c r="D1099" t="n">
-        <v>306.609985</v>
+        <v>305.339996</v>
       </c>
       <c r="E1099" t="n">
-        <v>309.01001</v>
+        <v>318.01001</v>
       </c>
       <c r="F1099" t="n">
-        <v>309.01001</v>
+        <v>318.01001</v>
       </c>
       <c r="G1099" t="n">
-        <v>103103847</v>
+        <v>200910473</v>
       </c>
       <c r="H1099" t="s">
         <v>8</v>
@@ -28983,22 +28983,22 @@
         <v>43323</v>
       </c>
       <c r="B1100" t="n">
-        <v>309.01001</v>
+        <v>317.98999</v>
       </c>
       <c r="C1100" t="n">
-        <v>309.01001</v>
+        <v>327.329987</v>
       </c>
       <c r="D1100" t="n">
-        <v>309.01001</v>
+        <v>314.309998</v>
       </c>
       <c r="E1100" t="n">
-        <v>309.01001</v>
+        <v>318.200012</v>
       </c>
       <c r="F1100" t="n">
-        <v>309.01001</v>
+        <v>318.200012</v>
       </c>
       <c r="G1100" t="n">
-        <v>0</v>
+        <v>92445532</v>
       </c>
       <c r="H1100" t="s">
         <v>8</v>
@@ -30228,7 +30228,7 @@
     </row>
     <row r="1148" spans="1:8">
       <c r="A1148" s="2" t="n">
-        <v>43372</v>
+        <v>43371</v>
       </c>
       <c r="B1148" t="n">
         <v>221.559998</v>
@@ -30240,15 +30240,561 @@
         <v>213.330002</v>
       </c>
       <c r="E1148" t="n">
-        <v>230.389999</v>
+        <v>231.320007</v>
       </c>
       <c r="F1148" t="n">
-        <v>230.389999</v>
+        <v>231.320007</v>
       </c>
       <c r="G1148" t="n">
-        <v>87188616</v>
+        <v>169490766</v>
       </c>
       <c r="H1148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8">
+      <c r="A1149" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>231.320007</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>238.899994</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>226.139999</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>232.600006</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>232.600006</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>120465654</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8">
+      <c r="A1150" s="2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>232.600006</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>235.419998</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>224.539993</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>230.889999</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>230.889999</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>89553376</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8">
+      <c r="A1151" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>230.899994</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>231.649994</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>222.429993</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>225.410004</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>225.410004</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>69760408</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8">
+      <c r="A1152" s="2" t="n">
+        <v>43375</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>225.419998</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>225.679993</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>214.979996</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>219.970001</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>219.970001</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>115425803</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8">
+      <c r="A1153" s="2" t="n">
+        <v>43376</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>219.970001</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>226.300003</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>219.009995</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>221.759995</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>221.759995</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>94094782</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8">
+      <c r="A1154" s="2" t="n">
+        <v>43377</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>221.759995</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>231.910004</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>219.059998</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>227.899994</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>227.899994</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>90777990</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8">
+      <c r="A1155" s="2" t="n">
+        <v>43378</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>227.899994</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>228.419998</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>222.820007</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>224.619995</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>224.619995</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>58388239</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8">
+      <c r="A1156" s="2" t="n">
+        <v>43379</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>224.619995</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>226.869995</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>220.75</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>225.649994</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>225.649994</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>58001835</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8">
+      <c r="A1157" s="2" t="n">
+        <v>43380</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>225.649994</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>232.309998</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>223.649994</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>229.330002</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>229.330002</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>119060366</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8">
+      <c r="A1158" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>229.330002</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>230.169998</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>226.080002</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>227.490005</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>227.490005</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>57089428</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8">
+      <c r="A1159" s="2" t="n">
+        <v>43382</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>227.490005</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>227.529999</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>222.630005</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>225.259995</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>225.259995</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>79427315</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8">
+      <c r="A1160" s="2" t="n">
+        <v>43383</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>225.259995</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>225.259995</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>186.880005</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>189.830002</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>189.830002</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>280686354</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8">
+      <c r="A1161" s="2" t="n">
+        <v>43384</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>189.830002</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>200.039993</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>188.429993</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>195.970001</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>195.970001</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>122749873</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8">
+      <c r="A1162" s="2" t="n">
+        <v>43385</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>195.970001</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>201.039993</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>195.410004</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>199.449997</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>199.449997</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>50575220</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8">
+      <c r="A1163" s="2" t="n">
+        <v>43386</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>199.449997</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>201.690002</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>192.669998</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>194.990005</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>194.990005</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>68812436</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8">
+      <c r="A1164" s="2" t="n">
+        <v>43387</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>194.990005</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>232.029999</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>192.880005</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>210.800003</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>210.800003</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>352120919</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8">
+      <c r="A1165" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>210.800003</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>215</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>207.779999</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>210.220001</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>210.220001</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>81883310</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8">
+      <c r="A1166" s="2" t="n">
+        <v>43389</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>210.220001</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>211.289993</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>205.490005</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>207.600006</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>207.600006</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>59192189</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8">
+      <c r="A1167" s="2" t="n">
+        <v>43390</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>207.600006</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>209.460007</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>200.389999</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>202.490005</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>202.490005</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>96947739</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8">
+      <c r="A1168" s="2" t="n">
+        <v>43391</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>202.490005</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>204.789993</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>200.979996</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>202.860001</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>202.860001</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>65604453</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8">
+      <c r="A1169" s="2" t="n">
+        <v>43393</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>202.860001</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>207.029999</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>201.759995</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>205.210007</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>205.210007</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>33788304</v>
+      </c>
+      <c r="H1169" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Ethereum.xlsx
+++ b/Ethereum.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1169"/>
+  <dimension ref="A1:H1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30774,7 +30774,7 @@
     </row>
     <row r="1169" spans="1:8">
       <c r="A1169" s="2" t="n">
-        <v>43393</v>
+        <v>43392</v>
       </c>
       <c r="B1169" t="n">
         <v>202.860001</v>
@@ -30786,15 +30786,41 @@
         <v>201.759995</v>
       </c>
       <c r="E1169" t="n">
-        <v>205.210007</v>
+        <v>205.080002</v>
       </c>
       <c r="F1169" t="n">
-        <v>205.210007</v>
+        <v>205.080002</v>
       </c>
       <c r="G1169" t="n">
-        <v>33788304</v>
+        <v>49096326</v>
       </c>
       <c r="H1169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8">
+      <c r="A1170" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>205.080002</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>208.389999</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>204.869995</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>207.169998</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>207.169998</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>14317904</v>
+      </c>
+      <c r="H1170" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Ethereum.xlsx
+++ b/Ethereum.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1170"/>
+  <dimension ref="A1:H1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30800,7 +30800,7 @@
     </row>
     <row r="1170" spans="1:8">
       <c r="A1170" s="2" t="n">
-        <v>43394</v>
+        <v>43393</v>
       </c>
       <c r="B1170" t="n">
         <v>205.080002</v>
@@ -30809,18 +30809,148 @@
         <v>208.389999</v>
       </c>
       <c r="D1170" t="n">
-        <v>204.869995</v>
+        <v>203.809998</v>
       </c>
       <c r="E1170" t="n">
-        <v>207.169998</v>
+        <v>204.770004</v>
       </c>
       <c r="F1170" t="n">
-        <v>207.169998</v>
+        <v>204.770004</v>
       </c>
       <c r="G1170" t="n">
-        <v>14317904</v>
+        <v>39862698</v>
       </c>
       <c r="H1170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8">
+      <c r="A1171" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>204.770004</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>205.869995</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>202.449997</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>203.600006</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>203.600006</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>50598661</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8">
+      <c r="A1172" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>203.600006</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>204.820007</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>200.509995</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>203.699997</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>203.699997</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>53645925</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8">
+      <c r="A1173" s="2" t="n">
+        <v>43396</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>203.699997</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>205.309998</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>202.440002</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>202.919998</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>202.919998</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>41210649</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8">
+      <c r="A1174" s="2" t="n">
+        <v>43397</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>202.929993</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>203.919998</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>199.789993</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>201.229996</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>201.229996</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>53009578</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8">
+      <c r="A1175" s="2" t="n">
+        <v>43399</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>201.229996</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>206.660004</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>200.460007</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>202.589996</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>202.589996</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>59654252</v>
+      </c>
+      <c r="H1175" t="s">
         <v>8</v>
       </c>
     </row>
